--- a/chuanhoafile-main/Chuanhoafile/Chuanhoafile/wwwroot/File/DuLieuTiemChung.xlsx
+++ b/chuanhoafile-main/Chuanhoafile/Chuanhoafile/wwwroot/File/DuLieuTiemChung.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\chuanhoafile-main\chuanhoafile-main\Chuanhoafile\Chuanhoafile\wwwroot\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cheem\Documents\GitHub\chuanhoadulieu\chuanhoafile-main\Chuanhoafile\Chuanhoafile\wwwroot\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA643C2E-7E0B-4109-9E48-F7286868A1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BFD2D2-BF3D-4CBB-98BF-5E38A379E19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet_default" sheetId="1" r:id="rId1"/>
+    <sheet name="PL1_Danh sách đối tượng tiêm" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -31,7 +31,7 @@
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
-            <rFont val="Calibri"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -138,7 +138,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -153,7 +153,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -656,10 +656,10 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="6" customWidth="1"/>
     <col min="2" max="2" width="20" style="6" customWidth="1"/>
@@ -667,11 +667,11 @@
     <col min="9" max="9" width="30" style="6" customWidth="1"/>
     <col min="10" max="10" width="20" style="6" customWidth="1"/>
     <col min="11" max="20" width="20" style="7" customWidth="1"/>
-    <col min="21" max="29" width="8.88671875" style="6" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="6"/>
+    <col min="21" max="29" width="8.875" style="6" customWidth="1"/>
+    <col min="30" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -715,7 +715,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -737,7 +737,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -759,7 +759,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
@@ -781,7 +781,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -801,7 +801,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -845,7 +845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="17"/>
@@ -879,7 +879,7 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -897,7 +897,7 @@
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
